--- a/fgt-tables/fgt_nivel_instrucao_rm.xlsx
+++ b/fgt-tables/fgt_nivel_instrucao_rm.xlsx
@@ -381,10 +381,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.3497528890897569</v>
+        <v>0.3146293670956112</v>
       </c>
       <c r="C2">
-        <v>0.002897144320992446</v>
+        <v>0.003648818996706889</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.3404468898265051</v>
+        <v>0.3004422598709933</v>
       </c>
       <c r="C3">
-        <v>0.001859291234285514</v>
+        <v>0.001959607579694902</v>
       </c>
     </row>
     <row r="4">
@@ -407,10 +407,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.2874471522329748</v>
+        <v>0.2586819355893186</v>
       </c>
       <c r="C4">
-        <v>0.002738713862767964</v>
+        <v>0.003922771422438028</v>
       </c>
     </row>
     <row r="5">
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.3180842641227941</v>
+        <v>0.3060222718072834</v>
       </c>
       <c r="C5">
-        <v>0.002828211437364914</v>
+        <v>0.004555794877035837</v>
       </c>
     </row>
     <row r="6">
@@ -433,10 +433,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.2110252853774504</v>
+        <v>0.2041455830938401</v>
       </c>
       <c r="C6">
-        <v>0.001890558759666484</v>
+        <v>0.002344272394948808</v>
       </c>
     </row>
     <row r="7">
@@ -446,10 +446,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.1138815184478964</v>
+        <v>0.1122919010182405</v>
       </c>
       <c r="C7">
-        <v>0.002312701002757519</v>
+        <v>0.004190936201316352</v>
       </c>
     </row>
     <row r="8">
@@ -459,10 +459,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.04589745687546615</v>
+        <v>0.04295661193951493</v>
       </c>
       <c r="C8">
-        <v>0.001048860324253736</v>
+        <v>0.00134131295413297</v>
       </c>
     </row>
   </sheetData>
